--- a/natmiOut/OldD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.22886606582643</v>
+        <v>5.282564</v>
       </c>
       <c r="H2">
-        <v>2.22886606582643</v>
+        <v>15.847692</v>
       </c>
       <c r="I2">
-        <v>0.01979886164819656</v>
+        <v>0.0387402844696342</v>
       </c>
       <c r="J2">
-        <v>0.01979886164819656</v>
+        <v>0.03912622518379641</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N2">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O2">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P2">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q2">
-        <v>27.89402069078351</v>
+        <v>67.66869750018934</v>
       </c>
       <c r="R2">
-        <v>27.89402069078351</v>
+        <v>609.018277501704</v>
       </c>
       <c r="S2">
-        <v>0.00601934040878935</v>
+        <v>0.01167695537182485</v>
       </c>
       <c r="T2">
-        <v>0.00601934040878935</v>
+        <v>0.01291637176302519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.22886606582643</v>
+        <v>5.282564</v>
       </c>
       <c r="H3">
-        <v>2.22886606582643</v>
+        <v>15.847692</v>
       </c>
       <c r="I3">
-        <v>0.01979886164819656</v>
+        <v>0.0387402844696342</v>
       </c>
       <c r="J3">
-        <v>0.01979886164819656</v>
+        <v>0.03912622518379641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N3">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P3">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q3">
-        <v>24.64340933196704</v>
+        <v>61.81143279750133</v>
       </c>
       <c r="R3">
-        <v>24.64340933196704</v>
+        <v>556.302895177512</v>
       </c>
       <c r="S3">
-        <v>0.005317880532413098</v>
+        <v>0.01066622188557648</v>
       </c>
       <c r="T3">
-        <v>0.005317880532413098</v>
+        <v>0.01179835691703008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.22886606582643</v>
+        <v>5.282564</v>
       </c>
       <c r="H4">
-        <v>2.22886606582643</v>
+        <v>15.847692</v>
       </c>
       <c r="I4">
-        <v>0.01979886164819656</v>
+        <v>0.0387402844696342</v>
       </c>
       <c r="J4">
-        <v>0.01979886164819656</v>
+        <v>0.03912622518379641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N4">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O4">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P4">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q4">
-        <v>5.056097189992132</v>
+        <v>13.24511710728267</v>
       </c>
       <c r="R4">
-        <v>5.056097189992132</v>
+        <v>119.206053965544</v>
       </c>
       <c r="S4">
-        <v>0.001091071468823488</v>
+        <v>0.002285586202629374</v>
       </c>
       <c r="T4">
-        <v>0.001091071468823488</v>
+        <v>0.002528183087933516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.22886606582643</v>
+        <v>5.282564</v>
       </c>
       <c r="H5">
-        <v>2.22886606582643</v>
+        <v>15.847692</v>
       </c>
       <c r="I5">
-        <v>0.01979886164819656</v>
+        <v>0.0387402844696342</v>
       </c>
       <c r="J5">
-        <v>0.01979886164819656</v>
+        <v>0.03912622518379641</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N5">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O5">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P5">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q5">
-        <v>9.462843736818815</v>
+        <v>23.215236467724</v>
       </c>
       <c r="R5">
-        <v>9.462843736818815</v>
+        <v>208.937128209516</v>
       </c>
       <c r="S5">
-        <v>0.002042017474587769</v>
+        <v>0.004006036619505133</v>
       </c>
       <c r="T5">
-        <v>0.002042017474587769</v>
+        <v>0.004431245699428808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.22886606582643</v>
+        <v>5.282564</v>
       </c>
       <c r="H6">
-        <v>2.22886606582643</v>
+        <v>15.847692</v>
       </c>
       <c r="I6">
-        <v>0.01979886164819656</v>
+        <v>0.0387402844696342</v>
       </c>
       <c r="J6">
-        <v>0.01979886164819656</v>
+        <v>0.03912622518379641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N6">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O6">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P6">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q6">
-        <v>24.69286052143799</v>
+        <v>58.56192342196</v>
       </c>
       <c r="R6">
-        <v>24.69286052143799</v>
+        <v>351.37154053176</v>
       </c>
       <c r="S6">
-        <v>0.00532855176358285</v>
+        <v>0.01010548439009836</v>
       </c>
       <c r="T6">
-        <v>0.00532855176358285</v>
+        <v>0.007452067716378818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.8366452766732</v>
+        <v>72.23082466666666</v>
       </c>
       <c r="H7">
-        <v>66.8366452766732</v>
+        <v>216.692474</v>
       </c>
       <c r="I7">
-        <v>0.5937052536047233</v>
+        <v>0.5297129755669666</v>
       </c>
       <c r="J7">
-        <v>0.5937052536047233</v>
+        <v>0.53499011296774</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N7">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O7">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P7">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q7">
-        <v>836.4534750807512</v>
+        <v>925.2639105854431</v>
       </c>
       <c r="R7">
-        <v>836.4534750807512</v>
+        <v>8327.375195268989</v>
       </c>
       <c r="S7">
-        <v>0.1805009847249962</v>
+        <v>0.159664154774608</v>
       </c>
       <c r="T7">
-        <v>0.1805009847249962</v>
+        <v>0.1766112410837913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.8366452766732</v>
+        <v>72.23082466666666</v>
       </c>
       <c r="H8">
-        <v>66.8366452766732</v>
+        <v>216.692474</v>
       </c>
       <c r="I8">
-        <v>0.5937052536047233</v>
+        <v>0.5297129755669666</v>
       </c>
       <c r="J8">
-        <v>0.5937052536047233</v>
+        <v>0.53499011296774</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N8">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P8">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q8">
-        <v>738.9779193923101</v>
+        <v>845.1749500416404</v>
       </c>
       <c r="R8">
-        <v>738.9779193923101</v>
+        <v>7606.574550374764</v>
       </c>
       <c r="S8">
-        <v>0.1594664211628312</v>
+        <v>0.1458439505650736</v>
       </c>
       <c r="T8">
-        <v>0.1594664211628312</v>
+        <v>0.1613241315824577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.8366452766732</v>
+        <v>72.23082466666666</v>
       </c>
       <c r="H9">
-        <v>66.8366452766732</v>
+        <v>216.692474</v>
       </c>
       <c r="I9">
-        <v>0.5937052536047233</v>
+        <v>0.5297129755669666</v>
       </c>
       <c r="J9">
-        <v>0.5937052536047233</v>
+        <v>0.53499011296774</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N9">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O9">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P9">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q9">
-        <v>151.6163665251855</v>
+        <v>181.1063209959408</v>
       </c>
       <c r="R9">
-        <v>151.6163665251855</v>
+        <v>1629.956888963468</v>
       </c>
       <c r="S9">
-        <v>0.03271778320435566</v>
+        <v>0.03125182700345415</v>
       </c>
       <c r="T9">
-        <v>0.03271778320435566</v>
+        <v>0.0345689610858965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>66.8366452766732</v>
+        <v>72.23082466666666</v>
       </c>
       <c r="H10">
-        <v>66.8366452766732</v>
+        <v>216.692474</v>
       </c>
       <c r="I10">
-        <v>0.5937052536047233</v>
+        <v>0.5297129755669666</v>
       </c>
       <c r="J10">
-        <v>0.5937052536047233</v>
+        <v>0.53499011296774</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N10">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O10">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P10">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q10">
-        <v>283.7607606143168</v>
+        <v>317.432155085178</v>
       </c>
       <c r="R10">
-        <v>283.7607606143168</v>
+        <v>2856.889395766602</v>
       </c>
       <c r="S10">
-        <v>0.06123364687109874</v>
+        <v>0.0547763034525888</v>
       </c>
       <c r="T10">
-        <v>0.06123364687109874</v>
+        <v>0.06059037451706462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.8366452766732</v>
+        <v>72.23082466666666</v>
       </c>
       <c r="H11">
-        <v>66.8366452766732</v>
+        <v>216.692474</v>
       </c>
       <c r="I11">
-        <v>0.5937052536047233</v>
+        <v>0.5297129755669666</v>
       </c>
       <c r="J11">
-        <v>0.5937052536047233</v>
+        <v>0.53499011296774</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N11">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O11">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P11">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q11">
-        <v>740.4608041918299</v>
+        <v>800.7429768639532</v>
       </c>
       <c r="R11">
-        <v>740.4608041918299</v>
+        <v>4804.45786118372</v>
       </c>
       <c r="S11">
-        <v>0.1597864176414414</v>
+        <v>0.1381767397712421</v>
       </c>
       <c r="T11">
-        <v>0.1597864176414414</v>
+        <v>0.10189540469853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.7321266017854</v>
+        <v>29.35328466666667</v>
       </c>
       <c r="H12">
-        <v>23.7321266017854</v>
+        <v>88.059854</v>
       </c>
       <c r="I12">
-        <v>0.2108108236786376</v>
+        <v>0.215265654728427</v>
       </c>
       <c r="J12">
-        <v>0.2108108236786376</v>
+        <v>0.2174101867487225</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N12">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O12">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P12">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q12">
-        <v>297.0050289769393</v>
+        <v>376.0103125576165</v>
       </c>
       <c r="R12">
-        <v>297.0050289769393</v>
+        <v>3384.092813018548</v>
       </c>
       <c r="S12">
-        <v>0.06409167012359905</v>
+        <v>0.06488458920121695</v>
       </c>
       <c r="T12">
-        <v>0.06409167012359905</v>
+        <v>0.07177157479219817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.7321266017854</v>
+        <v>29.35328466666667</v>
       </c>
       <c r="H13">
-        <v>23.7321266017854</v>
+        <v>88.059854</v>
       </c>
       <c r="I13">
-        <v>0.2108108236786376</v>
+        <v>0.215265654728427</v>
       </c>
       <c r="J13">
-        <v>0.2108108236786376</v>
+        <v>0.2174101867487225</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N13">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P13">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q13">
-        <v>262.3937432279097</v>
+        <v>343.4636253454938</v>
       </c>
       <c r="R13">
-        <v>262.3937432279097</v>
+        <v>3091.172628109444</v>
       </c>
       <c r="S13">
-        <v>0.05662278949076414</v>
+        <v>0.05926831124528857</v>
       </c>
       <c r="T13">
-        <v>0.05662278949076414</v>
+        <v>0.0655591733833267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.7321266017854</v>
+        <v>29.35328466666667</v>
       </c>
       <c r="H14">
-        <v>23.7321266017854</v>
+        <v>88.059854</v>
       </c>
       <c r="I14">
-        <v>0.2108108236786376</v>
+        <v>0.215265654728427</v>
       </c>
       <c r="J14">
-        <v>0.2108108236786376</v>
+        <v>0.2174101867487225</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N14">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O14">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P14">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q14">
-        <v>53.83541903372891</v>
+        <v>73.59829296784754</v>
       </c>
       <c r="R14">
-        <v>53.83541903372891</v>
+        <v>662.384636710628</v>
       </c>
       <c r="S14">
-        <v>0.01161731816313246</v>
+        <v>0.01270017030290323</v>
       </c>
       <c r="T14">
-        <v>0.01161731816313246</v>
+        <v>0.01404819286043006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.7321266017854</v>
+        <v>29.35328466666667</v>
       </c>
       <c r="H15">
-        <v>23.7321266017854</v>
+        <v>88.059854</v>
       </c>
       <c r="I15">
-        <v>0.2108108236786376</v>
+        <v>0.215265654728427</v>
       </c>
       <c r="J15">
-        <v>0.2108108236786376</v>
+        <v>0.2174101867487225</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N15">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O15">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P15">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q15">
-        <v>100.7567969284093</v>
+        <v>128.998615945038</v>
       </c>
       <c r="R15">
-        <v>100.7567969284093</v>
+        <v>1160.987543505342</v>
       </c>
       <c r="S15">
-        <v>0.02174263315907511</v>
+        <v>0.02226008682098791</v>
       </c>
       <c r="T15">
-        <v>0.02174263315907511</v>
+        <v>0.02462281885146611</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.7321266017854</v>
+        <v>29.35328466666667</v>
       </c>
       <c r="H16">
-        <v>23.7321266017854</v>
+        <v>88.059854</v>
       </c>
       <c r="I16">
-        <v>0.2108108236786376</v>
+        <v>0.215265654728427</v>
       </c>
       <c r="J16">
-        <v>0.2108108236786376</v>
+        <v>0.2174101867487225</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N16">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O16">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P16">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q16">
-        <v>262.9202808728257</v>
+        <v>325.4072849533533</v>
       </c>
       <c r="R16">
-        <v>262.9202808728257</v>
+        <v>1952.44370972012</v>
       </c>
       <c r="S16">
-        <v>0.05673641274206685</v>
+        <v>0.05615249715803039</v>
       </c>
       <c r="T16">
-        <v>0.05673641274206685</v>
+        <v>0.04140842686130146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.3464785309152</v>
+        <v>25.45663266666667</v>
       </c>
       <c r="H17">
-        <v>16.3464785309152</v>
+        <v>76.36989800000001</v>
       </c>
       <c r="I17">
-        <v>0.1452046275148453</v>
+        <v>0.1866891136852577</v>
       </c>
       <c r="J17">
-        <v>0.1452046275148453</v>
+        <v>0.188548958827037</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N17">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O17">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P17">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q17">
-        <v>204.5744324227622</v>
+        <v>326.0948992372084</v>
       </c>
       <c r="R17">
-        <v>204.5744324227622</v>
+        <v>2934.854093134876</v>
       </c>
       <c r="S17">
-        <v>0.0441457745134013</v>
+        <v>0.05627115233541996</v>
       </c>
       <c r="T17">
-        <v>0.0441457745134013</v>
+        <v>0.06224388977728201</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.3464785309152</v>
+        <v>25.45663266666667</v>
       </c>
       <c r="H18">
-        <v>16.3464785309152</v>
+        <v>76.36989800000001</v>
       </c>
       <c r="I18">
-        <v>0.1452046275148453</v>
+        <v>0.1866891136852577</v>
       </c>
       <c r="J18">
-        <v>0.1452046275148453</v>
+        <v>0.188548958827037</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N18">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O18">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P18">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q18">
-        <v>180.7344854632125</v>
+        <v>297.8687885894698</v>
       </c>
       <c r="R18">
-        <v>180.7344854632125</v>
+        <v>2680.819097305228</v>
       </c>
       <c r="S18">
-        <v>0.03900127570959755</v>
+        <v>0.05140043594025197</v>
       </c>
       <c r="T18">
-        <v>0.03900127570959755</v>
+        <v>0.05685618538782695</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.3464785309152</v>
+        <v>25.45663266666667</v>
       </c>
       <c r="H19">
-        <v>16.3464785309152</v>
+        <v>76.36989800000001</v>
       </c>
       <c r="I19">
-        <v>0.1452046275148453</v>
+        <v>0.1866891136852577</v>
       </c>
       <c r="J19">
-        <v>0.1452046275148453</v>
+        <v>0.188548958827037</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N19">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O19">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P19">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q19">
-        <v>37.08135963556962</v>
+        <v>63.82811089975955</v>
       </c>
       <c r="R19">
-        <v>37.08135963556962</v>
+        <v>574.452998097836</v>
       </c>
       <c r="S19">
-        <v>0.008001905818510562</v>
+        <v>0.0110142211979519</v>
       </c>
       <c r="T19">
-        <v>0.008001905818510562</v>
+        <v>0.01218329360204676</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.3464785309152</v>
+        <v>25.45663266666667</v>
       </c>
       <c r="H20">
-        <v>16.3464785309152</v>
+        <v>76.36989800000001</v>
       </c>
       <c r="I20">
-        <v>0.1452046275148453</v>
+        <v>0.1866891136852577</v>
       </c>
       <c r="J20">
-        <v>0.1452046275148453</v>
+        <v>0.188548958827037</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N20">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O20">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P20">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q20">
-        <v>69.40038899464314</v>
+        <v>111.874034470506</v>
       </c>
       <c r="R20">
-        <v>69.40038899464314</v>
+        <v>1006.866310234554</v>
       </c>
       <c r="S20">
-        <v>0.01497613307497053</v>
+        <v>0.01930505767122884</v>
       </c>
       <c r="T20">
-        <v>0.01497613307497053</v>
+        <v>0.02135413674611525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.3464785309152</v>
+        <v>25.45663266666667</v>
       </c>
       <c r="H21">
-        <v>16.3464785309152</v>
+        <v>76.36989800000001</v>
       </c>
       <c r="I21">
-        <v>0.1452046275148453</v>
+        <v>0.1866891136852577</v>
       </c>
       <c r="J21">
-        <v>0.1452046275148453</v>
+        <v>0.188548958827037</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N21">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O21">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P21">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q21">
-        <v>181.0971599277794</v>
+        <v>282.2094295130733</v>
       </c>
       <c r="R21">
-        <v>181.0971599277794</v>
+        <v>1693.25657707844</v>
       </c>
       <c r="S21">
-        <v>0.0390795383983653</v>
+        <v>0.04869824654040502</v>
       </c>
       <c r="T21">
-        <v>0.0390795383983653</v>
+        <v>0.03591145331376602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.43134899503067</v>
+        <v>4.035114500000001</v>
       </c>
       <c r="H22">
-        <v>3.43134899503067</v>
+        <v>8.070229000000001</v>
       </c>
       <c r="I22">
-        <v>0.03048043355359739</v>
+        <v>0.02959197154971446</v>
       </c>
       <c r="J22">
-        <v>0.03048043355359739</v>
+        <v>0.0199245162727042</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N22">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O22">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P22">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q22">
-        <v>42.9429660813627</v>
+        <v>51.68909311446635</v>
       </c>
       <c r="R22">
-        <v>42.9429660813627</v>
+        <v>310.1345586867981</v>
       </c>
       <c r="S22">
-        <v>0.009266800719489836</v>
+        <v>0.00891950422876152</v>
       </c>
       <c r="T22">
-        <v>0.009266800719489836</v>
+        <v>0.00657749267065179</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.43134899503067</v>
+        <v>4.035114500000001</v>
       </c>
       <c r="H23">
-        <v>3.43134899503067</v>
+        <v>8.070229000000001</v>
       </c>
       <c r="I23">
-        <v>0.03048043355359739</v>
+        <v>0.02959197154971446</v>
       </c>
       <c r="J23">
-        <v>0.03048043355359739</v>
+        <v>0.0199245162727042</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N23">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O23">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P23">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q23">
-        <v>37.93863576725096</v>
+        <v>47.21499043778234</v>
       </c>
       <c r="R23">
-        <v>37.93863576725096</v>
+        <v>283.289942626694</v>
       </c>
       <c r="S23">
-        <v>0.008186900191251711</v>
+        <v>0.008147450100123162</v>
       </c>
       <c r="T23">
-        <v>0.008186900191251711</v>
+        <v>0.006008158294858758</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.43134899503067</v>
+        <v>4.035114500000001</v>
       </c>
       <c r="H24">
-        <v>3.43134899503067</v>
+        <v>8.070229000000001</v>
       </c>
       <c r="I24">
-        <v>0.03048043355359739</v>
+        <v>0.02959197154971446</v>
       </c>
       <c r="J24">
-        <v>0.03048043355359739</v>
+        <v>0.0199245162727042</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N24">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O24">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P24">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q24">
-        <v>7.783883597879651</v>
+        <v>10.11735287897967</v>
       </c>
       <c r="R24">
-        <v>7.783883597879651</v>
+        <v>60.704117273878</v>
       </c>
       <c r="S24">
-        <v>0.001679709268069434</v>
+        <v>0.001745857130596</v>
       </c>
       <c r="T24">
-        <v>0.001679709268069434</v>
+        <v>0.001287444031190827</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.43134899503067</v>
+        <v>4.035114500000001</v>
       </c>
       <c r="H25">
-        <v>3.43134899503067</v>
+        <v>8.070229000000001</v>
       </c>
       <c r="I25">
-        <v>0.03048043355359739</v>
+        <v>0.02959197154971446</v>
       </c>
       <c r="J25">
-        <v>0.03048043355359739</v>
+        <v>0.0199245162727042</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N25">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O25">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P25">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q25">
-        <v>14.56808905851685</v>
+        <v>17.7330813771195</v>
       </c>
       <c r="R25">
-        <v>14.56808905851685</v>
+        <v>106.398488262717</v>
       </c>
       <c r="S25">
-        <v>0.003143694776771508</v>
+        <v>0.003060032296986113</v>
       </c>
       <c r="T25">
-        <v>0.003143694776771508</v>
+        <v>0.002256553670380245</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.43134899503067</v>
+        <v>4.035114500000001</v>
       </c>
       <c r="H26">
-        <v>3.43134899503067</v>
+        <v>8.070229000000001</v>
       </c>
       <c r="I26">
-        <v>0.03048043355359739</v>
+        <v>0.02959197154971446</v>
       </c>
       <c r="J26">
-        <v>0.03048043355359739</v>
+        <v>0.0199245162727042</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N26">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O26">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P26">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q26">
-        <v>38.01476608835723</v>
+        <v>44.732835484405</v>
       </c>
       <c r="R26">
-        <v>38.01476608835723</v>
+        <v>178.93134193762</v>
       </c>
       <c r="S26">
-        <v>0.008203328598014901</v>
+        <v>0.007719127793247667</v>
       </c>
       <c r="T26">
-        <v>0.008203328598014901</v>
+        <v>0.00379486760562258</v>
       </c>
     </row>
   </sheetData>
